--- a/Test Case/Preethi/Test Case-Store-1-50.xlsx
+++ b/Test Case/Preethi/Test Case-Store-1-50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -73,32 +73,215 @@
     <t>http://mediwarecloud.com/mediwareqc</t>
   </si>
   <si>
-    <t>Pre-condition: IP Counter is required</t>
-  </si>
-  <si>
     <t>Store Management</t>
   </si>
   <si>
     <t>MED_STM_TC_001</t>
+  </si>
+  <si>
+    <t>Verify "Store Requisition" is listing correctly in "Pending Request"</t>
+  </si>
+  <si>
+    <t>Pre-condition:Add Store Requisition from Indent</t>
+  </si>
+  <si>
+    <t>Select "Store" from Application Selector</t>
+  </si>
+  <si>
+    <t>"Select Outlet" pop up window should be displayed with Hospital dropdown and Store dropdown</t>
+  </si>
+  <si>
+    <t>Select "Hospital" , "Store"  from the dropdown and Click "Select" Button</t>
+  </si>
+  <si>
+    <t>Navigates to Dashboard Page</t>
+  </si>
+  <si>
+    <t>Go to "Pending Request Tab"</t>
+  </si>
+  <si>
+    <t>"Pending Request" list should be listed with following fields:
+1) Doc#
+2)  Date
+3) Hospital
+4) Outlet/Store
+5) Requested by
+6) Sanctioned Date
+7) Status
+8) Select checkbox</t>
+  </si>
+  <si>
+    <t>Verify "View" in Pending List is working correctly</t>
+  </si>
+  <si>
+    <t>Select "View" option corresponding to any of the Pending Requisition from list</t>
+  </si>
+  <si>
+    <t>"Requisition Item Remarks" pop up window should be displayed which list the Item, Rew Quantity, Remark and Status</t>
+  </si>
+  <si>
+    <t>MED_STM_TC_002</t>
+  </si>
+  <si>
+    <t>MED_STM_TC_003</t>
+  </si>
+  <si>
+    <t>Verify "Print" in "Requisition Item Remarks" pop up is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Print" option</t>
+  </si>
+  <si>
+    <t>Pending Request pop up window should be displayed in printing format</t>
+  </si>
+  <si>
+    <t>Select "Print" button on top of the Page</t>
+  </si>
+  <si>
+    <t>Preview of Print should be displayed</t>
+  </si>
+  <si>
+    <t>MED_STM_TC_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Issue of requested store Item is working correctly or not </t>
+  </si>
+  <si>
+    <t>Select any of the pending request from the list</t>
+  </si>
+  <si>
+    <t>Select "Save" option</t>
+  </si>
+  <si>
+    <t>"Data Saved" message should be displayed</t>
+  </si>
+  <si>
+    <t>Enter Required Quantity</t>
+  </si>
+  <si>
+    <t>Store Issue pop up window should be displayed with Items listed and options to enter Issued Quantity</t>
+  </si>
+  <si>
+    <t>MED_STM_TC_005</t>
+  </si>
+  <si>
+    <t>Verify Quatation creation is working correctly</t>
+  </si>
+  <si>
+    <t>Go to "Quotations" tab</t>
+  </si>
+  <si>
+    <t>Quotation list should be displayed with following fields:
+1) Quotation#
+2) Date
+3) Supplier
+4) Representative
+5) Expired on
+6) Amount
+7) Status
+and Edit option</t>
+  </si>
+  <si>
+    <t>Select "Add New" button on bottom of the page</t>
+  </si>
+  <si>
+    <t>"Quotation" pop up window should be listed to select Item,Quantity etc</t>
+  </si>
+  <si>
+    <t>Select Item, quantity,rate and select tick mark</t>
+  </si>
+  <si>
+    <t>MED_STM_TC_006</t>
+  </si>
+  <si>
+    <t>Verify Search quotation is working correctly</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Quotation list should be displayed with following fields:
+1) Quotation#
+2) Date
+3) Supplier
+4) Representative
+5) Expired on
+6) Amount
+7) Status
+and Edit option
+&gt;&gt; Search Quotation using Quotation#, Item search etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Search keyword </t>
+  </si>
+  <si>
+    <t>Entered Quotation should be listed in the list</t>
+  </si>
+  <si>
+    <t>MED_STM_TC_007</t>
+  </si>
+  <si>
+    <t>Verify Delete in Quotation is working correctly</t>
+  </si>
+  <si>
+    <t>Precondition: Already created quotations required</t>
+  </si>
+  <si>
+    <t>Select "Edit Quotation" button</t>
+  </si>
+  <si>
+    <t>"Quotation" pop up window should be listed to edit  Item,Quantity etc</t>
+  </si>
+  <si>
+    <t>Select "Delete" button on bottom of the page</t>
+  </si>
+  <si>
+    <t>"Delete Quotation" pop up window should be displayed   to enter reason</t>
+  </si>
+  <si>
+    <t>Enter Delete Reason and select delete button</t>
+  </si>
+  <si>
+    <t>"Data deleted successfully" message should be displayed</t>
+  </si>
+  <si>
+    <t>MED_STM_TC_008</t>
+  </si>
+  <si>
+    <t>Verify Print in Quotation is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Print" Button</t>
+  </si>
+  <si>
+    <t>Quotation in printable format should be displayed</t>
+  </si>
+  <si>
+    <t>Select "Print" on top of the pop up window</t>
+  </si>
+  <si>
+    <t>MED_STM_TC_009</t>
+  </si>
+  <si>
+    <t>Check Check box of any of the Pending Requests and Select "Cancel" option</t>
+  </si>
+  <si>
+    <t>Confirmation message should be displayed</t>
+  </si>
+  <si>
+    <t>Select ok</t>
+  </si>
+  <si>
+    <t>"Pending Request Cancelled" message should be displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,56 +404,56 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -282,22 +465,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -307,7 +487,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,11 +766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -601,7 +781,7 @@
     <col min="4" max="4" width="39.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="44.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="64" style="3" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="15" style="5" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="5"/>
@@ -646,29 +826,31 @@
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="Q1" s="29" t="s">
+      <c r="O1" s="27"/>
+      <c r="Q1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="29"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="35.25" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="27" t="s">
-        <v>19</v>
+      <c r="F2" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5"/>
@@ -681,7 +863,7 @@
       </c>
       <c r="O2" s="15">
         <f>COUNTA(A:A)-1</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>15</v>
@@ -715,26 +897,700 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="26"/>
-      <c r="B6" s="25"/>
+    <row r="4" spans="1:18" ht="30">
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30">
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="135">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="F8" s="24"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="26"/>
-      <c r="B13" s="25"/>
+    <row r="8" spans="1:18" ht="30">
+      <c r="A8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30">
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30">
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="135">
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
-      <c r="F15" s="24"/>
+    <row r="15" spans="1:18" ht="30">
+      <c r="A15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30">
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30">
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="135">
+      <c r="E19" s="5">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30">
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30">
+      <c r="E21" s="5">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="E22" s="5">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30">
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30">
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="135">
+      <c r="E28" s="5">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30">
+      <c r="E29" s="5">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="E30" s="5">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="E31" s="5">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30">
+      <c r="A33" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30">
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30">
+      <c r="E35" s="5">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="135">
+      <c r="E36" s="5">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30">
+      <c r="E37" s="5">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="E38" s="5">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="E39" s="5">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30">
+      <c r="A41" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30">
+      <c r="E42" s="5">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30">
+      <c r="E43" s="5">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="150">
+      <c r="E44" s="5">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="E45" s="5">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30">
+      <c r="A47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30">
+      <c r="E49" s="5">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30">
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="150">
+      <c r="E51" s="5">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30">
+      <c r="E52" s="5">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30">
+      <c r="E53" s="5">
+        <v>6</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="E54" s="5">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30">
+      <c r="A56" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30">
+      <c r="E58" s="5">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30">
+      <c r="E59" s="5">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="150">
+      <c r="E60" s="5">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30">
+      <c r="E61" s="5">
+        <v>5</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="E62" s="5">
+        <v>6</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="E63" s="5">
+        <v>7</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30">
+      <c r="A65" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30">
+      <c r="E67" s="5">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30">
+      <c r="E68" s="5">
+        <v>3</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="135">
+      <c r="E69" s="5">
+        <v>4</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30">
+      <c r="E70" s="5">
+        <v>5</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="E71" s="5">
+        <v>6</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -745,7 +1601,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 C2:C3">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B47 B41 B33 B24 B15 B8 B56 B65">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
@@ -754,8 +1610,15 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H9" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId3"/>
+    <hyperlink ref="H25" r:id="rId4"/>
+    <hyperlink ref="H33" r:id="rId5"/>
+    <hyperlink ref="H41" r:id="rId6"/>
+    <hyperlink ref="H48" r:id="rId7"/>
+    <hyperlink ref="H57" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>